--- a/wwwroot/Data/KnowledgeRepo/KnowledgeDb.xlsx
+++ b/wwwroot/Data/KnowledgeRepo/KnowledgeDb.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgreen3\Desktop\FunWithBrandt\wwwroot\Data\KnowledgeRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A51DEC-3393-4FA1-B183-23A9F98EF536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA3B350-67D1-4AD4-AFDB-7A2A87ABC96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DA4BD20-BC2D-405A-9D32-DEB7C747C120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DA4BD20-BC2D-405A-9D32-DEB7C747C120}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
   <si>
     <t>Aswath Damodaran</t>
   </si>
@@ -360,6 +360,39 @@
   </si>
   <si>
     <t>HTML;CSS; Web Development</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCqsN9MYiu1mKSAsYoF6ppTg</t>
+  </si>
+  <si>
+    <t>David Rubenstein</t>
+  </si>
+  <si>
+    <t>Amazing interviewer with great guest</t>
+  </si>
+  <si>
+    <t>https://riptutorial.com/epplus</t>
+  </si>
+  <si>
+    <t>C#;Programming;Excel</t>
+  </si>
+  <si>
+    <t>RIP Tutorial</t>
+  </si>
+  <si>
+    <t>EPPlus is a good package for manipulating excel using C#</t>
+  </si>
+  <si>
+    <t>https://docs.xlwings.org/en/stable/index.html</t>
+  </si>
+  <si>
+    <t>Integration of Python and Excel</t>
+  </si>
+  <si>
+    <t>xlWing</t>
+  </si>
+  <si>
+    <t>Python; Programming; Excel</t>
   </si>
 </sst>
 </file>
@@ -731,10 +764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1713A0BA-D256-437C-895C-C23039B9DBFD}">
-  <dimension ref="A1:E31"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,6 +1304,57 @@
       </c>
       <c r="E31" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1298,6 +1383,9 @@
     <hyperlink ref="D29" r:id="rId22" xr:uid="{E1D7B267-706A-4EF9-8591-9F28F7389661}"/>
     <hyperlink ref="D30" r:id="rId23" xr:uid="{DF4EB3BF-D300-4E30-B2D6-EC0BFD63663B}"/>
     <hyperlink ref="D31" r:id="rId24" xr:uid="{E5536AD5-821F-4C32-A0A6-B317A45EE5E8}"/>
+    <hyperlink ref="D32" r:id="rId25" xr:uid="{BC5FC770-DCCC-4640-B349-C1C63BBD53A5}"/>
+    <hyperlink ref="D33" r:id="rId26" xr:uid="{B1DB0FEF-A238-43C9-BC2D-4C041BA35431}"/>
+    <hyperlink ref="D34" r:id="rId27" xr:uid="{5B7B350B-A1CC-476B-A656-2529DB1142CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
